--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>842.3033855075843</v>
+        <v>911.2850765254318</v>
       </c>
       <c r="AB2" t="n">
-        <v>1152.476651854239</v>
+        <v>1246.860444762283</v>
       </c>
       <c r="AC2" t="n">
-        <v>1042.485897712409</v>
+        <v>1127.861833893795</v>
       </c>
       <c r="AD2" t="n">
-        <v>842303.3855075843</v>
+        <v>911285.0765254318</v>
       </c>
       <c r="AE2" t="n">
-        <v>1152476.651854239</v>
+        <v>1246860.444762283</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.891099833752419e-06</v>
+        <v>2.726331334055782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.07083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1042485.897712409</v>
+        <v>1127861.833893795</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.4395084038729</v>
+        <v>347.5210065267187</v>
       </c>
       <c r="AB3" t="n">
-        <v>416.5475663213836</v>
+        <v>475.4935726746194</v>
       </c>
       <c r="AC3" t="n">
-        <v>376.7928512198511</v>
+        <v>430.1131334579736</v>
       </c>
       <c r="AD3" t="n">
-        <v>304439.5084038729</v>
+        <v>347521.0065267187</v>
       </c>
       <c r="AE3" t="n">
-        <v>416547.5663213836</v>
+        <v>475493.5726746194</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.496412074021772e-06</v>
+        <v>5.040652864561824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.691666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>376792.8512198511</v>
+        <v>430113.1334579736</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.8016481325609</v>
+        <v>273.1645271139055</v>
       </c>
       <c r="AB4" t="n">
-        <v>326.7389501599966</v>
+        <v>373.7557571656542</v>
       </c>
       <c r="AC4" t="n">
-        <v>295.5554433378203</v>
+        <v>338.0850322712631</v>
       </c>
       <c r="AD4" t="n">
-        <v>238801.6481325609</v>
+        <v>273164.5271139055</v>
       </c>
       <c r="AE4" t="n">
-        <v>326738.9501599966</v>
+        <v>373755.7571656542</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.072655562668077e-06</v>
+        <v>5.871402596068446e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.462499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>295555.4433378204</v>
+        <v>338085.0322712631</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>205.2502351906435</v>
+        <v>239.6983655180055</v>
       </c>
       <c r="AB5" t="n">
-        <v>280.8324267890155</v>
+        <v>327.9658784471403</v>
       </c>
       <c r="AC5" t="n">
-        <v>254.0301741271409</v>
+        <v>296.665275311244</v>
       </c>
       <c r="AD5" t="n">
-        <v>205250.2351906436</v>
+        <v>239698.3655180054</v>
       </c>
       <c r="AE5" t="n">
-        <v>280832.4267890155</v>
+        <v>327965.8784471403</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.37755401615435e-06</v>
+        <v>6.310963846409925e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.943749999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>254030.1741271409</v>
+        <v>296665.2753112441</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>188.8981154740269</v>
+        <v>223.3462458013888</v>
       </c>
       <c r="AB6" t="n">
-        <v>258.4587351881441</v>
+        <v>305.5921868462689</v>
       </c>
       <c r="AC6" t="n">
-        <v>233.7917962509761</v>
+        <v>276.4268974350794</v>
       </c>
       <c r="AD6" t="n">
-        <v>188898.1154740269</v>
+        <v>223346.2458013888</v>
       </c>
       <c r="AE6" t="n">
-        <v>258458.7351881441</v>
+        <v>305592.1868462689</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.576978028554223e-06</v>
+        <v>6.598466348427533e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.639583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>233791.7962509761</v>
+        <v>276426.8974350793</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>183.7939974708598</v>
+        <v>209.7794417118816</v>
       </c>
       <c r="AB7" t="n">
-        <v>251.4750557584204</v>
+        <v>287.0294869658599</v>
       </c>
       <c r="AC7" t="n">
-        <v>227.4746293843674</v>
+        <v>259.6357955783378</v>
       </c>
       <c r="AD7" t="n">
-        <v>183793.9974708598</v>
+        <v>209779.4417118816</v>
       </c>
       <c r="AE7" t="n">
-        <v>251475.0557584204</v>
+        <v>287029.4869658599</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.635915337266402e-06</v>
+        <v>6.683434169067703e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.556249999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>227474.6293843674</v>
+        <v>259635.7955783377</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>184.284976419472</v>
+        <v>210.2704206604938</v>
       </c>
       <c r="AB8" t="n">
-        <v>252.1468348163738</v>
+        <v>287.7012660238132</v>
       </c>
       <c r="AC8" t="n">
-        <v>228.0822947918777</v>
+        <v>260.2434609858481</v>
       </c>
       <c r="AD8" t="n">
-        <v>184284.976419472</v>
+        <v>210270.4206604937</v>
       </c>
       <c r="AE8" t="n">
-        <v>252146.8348163738</v>
+        <v>287701.2660238132</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.634748261846359e-06</v>
+        <v>6.681751637965918e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.558333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>228082.2947918777</v>
+        <v>260243.460985848</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>522.4343381158379</v>
+        <v>581.2709621462875</v>
       </c>
       <c r="AB2" t="n">
-        <v>714.8177095864291</v>
+        <v>795.3205742735481</v>
       </c>
       <c r="AC2" t="n">
-        <v>646.5965106364562</v>
+        <v>719.4162949043165</v>
       </c>
       <c r="AD2" t="n">
-        <v>522434.3381158379</v>
+        <v>581270.9621462876</v>
       </c>
       <c r="AE2" t="n">
-        <v>714817.7095864292</v>
+        <v>795320.5742735481</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.48135099382376e-06</v>
+        <v>3.63260450913191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.67083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>646596.5106364562</v>
+        <v>719416.2949043165</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.4053486275481</v>
+        <v>282.321784693423</v>
       </c>
       <c r="AB3" t="n">
-        <v>328.9332039275097</v>
+        <v>386.2851209756422</v>
       </c>
       <c r="AC3" t="n">
-        <v>297.5402806054172</v>
+        <v>349.4186111842984</v>
       </c>
       <c r="AD3" t="n">
-        <v>240405.3486275481</v>
+        <v>282321.784693423</v>
       </c>
       <c r="AE3" t="n">
-        <v>328933.2039275097</v>
+        <v>386285.1209756422</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.954888951717885e-06</v>
+        <v>5.789808646533927e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.949999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>297540.2806054172</v>
+        <v>349418.6111842984</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.7471755687955</v>
+        <v>224.3315289342355</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.9887007845795</v>
+        <v>306.9402946962531</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.0803054817174</v>
+        <v>277.6463437639428</v>
       </c>
       <c r="AD4" t="n">
-        <v>190747.1755687955</v>
+        <v>224331.5289342355</v>
       </c>
       <c r="AE4" t="n">
-        <v>260988.7007845794</v>
+        <v>306940.2946962531</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.493355096101973e-06</v>
+        <v>6.578102825379727e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.997916666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>236080.3054817174</v>
+        <v>277646.3437639428</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>172.6302687440325</v>
+        <v>206.2146221094726</v>
       </c>
       <c r="AB5" t="n">
-        <v>236.200349605431</v>
+        <v>282.1519435171048</v>
       </c>
       <c r="AC5" t="n">
-        <v>213.6577197484297</v>
+        <v>255.2237580306551</v>
       </c>
       <c r="AD5" t="n">
-        <v>172630.2687440325</v>
+        <v>206214.6221094726</v>
       </c>
       <c r="AE5" t="n">
-        <v>236200.349605431</v>
+        <v>282151.9435171048</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.736177973432129e-06</v>
+        <v>6.9335863830487e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.6375</v>
       </c>
       <c r="AH5" t="n">
-        <v>213657.7197484297</v>
+        <v>255223.7580306552</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>171.9847256589404</v>
+        <v>205.5690790243805</v>
       </c>
       <c r="AB6" t="n">
-        <v>235.3170890770575</v>
+        <v>281.2686829887314</v>
       </c>
       <c r="AC6" t="n">
-        <v>212.85875636522</v>
+        <v>254.4247946474454</v>
       </c>
       <c r="AD6" t="n">
-        <v>171984.7256589404</v>
+        <v>205569.0790243805</v>
       </c>
       <c r="AE6" t="n">
-        <v>235317.0890770575</v>
+        <v>281268.6829887314</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.758966198712959e-06</v>
+        <v>6.96694748759066e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.60625</v>
       </c>
       <c r="AH6" t="n">
-        <v>212858.75636522</v>
+        <v>254424.7946474454</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.0296508540452</v>
+        <v>217.6954128161007</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.9562665291596</v>
+        <v>297.8604678586448</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.577984249967</v>
+        <v>269.4330828560958</v>
       </c>
       <c r="AD2" t="n">
-        <v>179029.6508540452</v>
+        <v>217695.4128161007</v>
       </c>
       <c r="AE2" t="n">
-        <v>244956.2665291596</v>
+        <v>297860.4678586448</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.419142316791023e-06</v>
+        <v>6.83695863169401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.939583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>221577.984249967</v>
+        <v>269433.0828560959</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.2605976514356</v>
+        <v>178.5625533627059</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.4343993207457</v>
+        <v>244.3171631346224</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.1599584031865</v>
+        <v>220.999875986417</v>
       </c>
       <c r="AD3" t="n">
-        <v>155260.5976514356</v>
+        <v>178562.5533627059</v>
       </c>
       <c r="AE3" t="n">
-        <v>212434.3993207457</v>
+        <v>244317.1631346224</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.890661198241175e-06</v>
+        <v>7.566456542247444e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.172916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>192159.9584031865</v>
+        <v>220999.875986417</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.4367282581712</v>
+        <v>310.3734636163019</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.0234624292463</v>
+        <v>424.6666656306571</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.7089425061894</v>
+        <v>384.137075086275</v>
       </c>
       <c r="AD2" t="n">
-        <v>270436.7282581712</v>
+        <v>310373.4636163019</v>
       </c>
       <c r="AE2" t="n">
-        <v>370023.4624292462</v>
+        <v>424666.6656306571</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.614174698575093e-06</v>
+        <v>5.462080422842931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.2875</v>
       </c>
       <c r="AH2" t="n">
-        <v>334708.9425061894</v>
+        <v>384137.075086275</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.5116777048075</v>
+        <v>189.5121988972138</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.5144263604106</v>
+        <v>259.2989512191966</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.9460319850318</v>
+        <v>234.5518232432759</v>
       </c>
       <c r="AD3" t="n">
-        <v>157511.6777048075</v>
+        <v>189512.1988972138</v>
       </c>
       <c r="AE3" t="n">
-        <v>215514.4263604106</v>
+        <v>259298.9512191966</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.84225946844395e-06</v>
+        <v>7.318077528278059e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.931250000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>194946.0319850318</v>
+        <v>234551.8232432759</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.5524501989919</v>
+        <v>187.5529713913982</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.8337248519378</v>
+        <v>256.6182497107238</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.5211728661386</v>
+        <v>232.1269641243827</v>
       </c>
       <c r="AD4" t="n">
-        <v>155552.4501989919</v>
+        <v>187552.9713913982</v>
       </c>
       <c r="AE4" t="n">
-        <v>212833.7248519378</v>
+        <v>256618.2497107238</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.891395747443032e-06</v>
+        <v>7.392336890360928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.8625</v>
       </c>
       <c r="AH4" t="n">
-        <v>192521.1728661386</v>
+        <v>232126.9641243827</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.641226146031</v>
+        <v>180.8764726945953</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.1139714347665</v>
+        <v>247.4831696474282</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.4427432838669</v>
+        <v>223.8637232811597</v>
       </c>
       <c r="AD2" t="n">
-        <v>150641.2261460311</v>
+        <v>180876.4726945953</v>
       </c>
       <c r="AE2" t="n">
-        <v>206113.9714347665</v>
+        <v>247483.1696474282</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.771019482985924e-06</v>
+        <v>7.540538994549487e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.637499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>186442.7432838669</v>
+        <v>223863.7232811596</v>
       </c>
     </row>
     <row r="3">
@@ -5274,28 +5274,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.5761701856249</v>
+        <v>181.8114167341891</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.3932031165582</v>
+        <v>248.7624013292198</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.5998868893617</v>
+        <v>225.0208668866545</v>
       </c>
       <c r="AD3" t="n">
-        <v>151576.1701856249</v>
+        <v>181811.4167341891</v>
       </c>
       <c r="AE3" t="n">
-        <v>207393.2031165582</v>
+        <v>248762.4013292198</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.771719071604713e-06</v>
+        <v>7.541644685959663e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.635416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>187599.8868893617</v>
+        <v>225020.8668866545</v>
       </c>
     </row>
   </sheetData>
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>586.6857412599363</v>
+        <v>645.8344276264265</v>
       </c>
       <c r="AB2" t="n">
-        <v>802.7293139400375</v>
+        <v>883.6591560825457</v>
       </c>
       <c r="AC2" t="n">
-        <v>726.1179548552677</v>
+        <v>799.3239664494415</v>
       </c>
       <c r="AD2" t="n">
-        <v>586685.7412599364</v>
+        <v>645834.4276264266</v>
       </c>
       <c r="AE2" t="n">
-        <v>802729.3139400375</v>
+        <v>883659.1560825456</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.326700828630236e-06</v>
+        <v>3.392065236452024e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.39166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>726117.9548552678</v>
+        <v>799323.9664494415</v>
       </c>
     </row>
     <row r="3">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.516945037074</v>
+        <v>295.3284243008147</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.8190215130782</v>
+        <v>404.0813790989174</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.66927630202</v>
+        <v>365.5164194094934</v>
       </c>
       <c r="AD3" t="n">
-        <v>261516.945037074</v>
+        <v>295328.4243008147</v>
       </c>
       <c r="AE3" t="n">
-        <v>357819.0215130781</v>
+        <v>404081.3790989174</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.838899329516031e-06</v>
+        <v>5.596678697001385e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.116666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>323669.2763020199</v>
+        <v>365516.4194094935</v>
       </c>
     </row>
     <row r="4">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.0987556615797</v>
+        <v>234.5213931274514</v>
       </c>
       <c r="AB4" t="n">
-        <v>286.0981422820882</v>
+        <v>320.8825164304851</v>
       </c>
       <c r="AC4" t="n">
-        <v>258.7933371240345</v>
+        <v>290.2579394238952</v>
       </c>
       <c r="AD4" t="n">
-        <v>209098.7556615797</v>
+        <v>234521.3931274514</v>
       </c>
       <c r="AE4" t="n">
-        <v>286098.1422820882</v>
+        <v>320882.5164304851</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.378959539851171e-06</v>
+        <v>6.384025072834017e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.114583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>258793.3371240344</v>
+        <v>290257.9394238951</v>
       </c>
     </row>
     <row r="5">
@@ -5889,28 +5889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>179.0947497289288</v>
+        <v>212.906139484118</v>
       </c>
       <c r="AB5" t="n">
-        <v>245.0453376817348</v>
+        <v>291.307572798002</v>
       </c>
       <c r="AC5" t="n">
-        <v>221.6585545767527</v>
+        <v>263.5055869029927</v>
       </c>
       <c r="AD5" t="n">
-        <v>179094.7497289288</v>
+        <v>212906.139484118</v>
       </c>
       <c r="AE5" t="n">
-        <v>245045.3376817348</v>
+        <v>291307.5727980019</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.665216876484087e-06</v>
+        <v>6.801355719010605e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.679166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>221658.5545767527</v>
+        <v>263505.5869029927</v>
       </c>
     </row>
     <row r="6">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>174.3881625826486</v>
+        <v>199.8960513945409</v>
       </c>
       <c r="AB6" t="n">
-        <v>238.6055775082272</v>
+        <v>273.5065963092733</v>
       </c>
       <c r="AC6" t="n">
-        <v>215.8333960759423</v>
+        <v>247.4035106265153</v>
       </c>
       <c r="AD6" t="n">
-        <v>174388.1625826486</v>
+        <v>199896.0513945409</v>
       </c>
       <c r="AE6" t="n">
-        <v>238605.5775082271</v>
+        <v>273506.5963092733</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.733266556822633e-06</v>
+        <v>6.900564414940775e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>215833.3960759423</v>
+        <v>247403.5106265153</v>
       </c>
     </row>
     <row r="7">
@@ -6101,28 +6101,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>174.9987039976723</v>
+        <v>200.5065928095646</v>
       </c>
       <c r="AB7" t="n">
-        <v>239.4409472074484</v>
+        <v>274.3419660084945</v>
       </c>
       <c r="AC7" t="n">
-        <v>216.5890392635189</v>
+        <v>248.1591538140918</v>
       </c>
       <c r="AD7" t="n">
-        <v>174998.7039976723</v>
+        <v>200506.5928095646</v>
       </c>
       <c r="AE7" t="n">
-        <v>239440.9472074484</v>
+        <v>274341.9660084945</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.73281787761161e-06</v>
+        <v>6.899910291670906e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>216589.0392635189</v>
+        <v>248159.1538140918</v>
       </c>
     </row>
   </sheetData>
@@ -6398,28 +6398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.8774852822218</v>
+        <v>186.533681860376</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.6466963092342</v>
+        <v>255.2236128064995</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.1611168720726</v>
+        <v>230.8654294089118</v>
       </c>
       <c r="AD2" t="n">
-        <v>156877.4852822218</v>
+        <v>186533.681860376</v>
       </c>
       <c r="AE2" t="n">
-        <v>214646.6963092342</v>
+        <v>255223.6128064995</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.640226730718854e-06</v>
+        <v>7.434733201095914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.035416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>194161.1168720726</v>
+        <v>230865.4294089118</v>
       </c>
     </row>
   </sheetData>
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>373.763255730093</v>
+        <v>423.0771918073587</v>
       </c>
       <c r="AB2" t="n">
-        <v>511.3993757610027</v>
+        <v>578.8728786792329</v>
       </c>
       <c r="AC2" t="n">
-        <v>462.5921370919036</v>
+        <v>523.626063591274</v>
       </c>
       <c r="AD2" t="n">
-        <v>373763.255730093</v>
+        <v>423077.1918073587</v>
       </c>
       <c r="AE2" t="n">
-        <v>511399.3757610027</v>
+        <v>578872.8786792329</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.998150962409031e-06</v>
+        <v>4.451784060500229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.80416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>462592.1370919036</v>
+        <v>523626.063591274</v>
       </c>
     </row>
     <row r="3">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.4240226129368</v>
+        <v>234.1862817002358</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.5972339396142</v>
+        <v>320.4240021916962</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.2946207356455</v>
+        <v>289.8431851405273</v>
       </c>
       <c r="AD3" t="n">
-        <v>201424.0226129368</v>
+        <v>234186.2817002358</v>
       </c>
       <c r="AE3" t="n">
-        <v>275597.2339396142</v>
+        <v>320424.0021916961</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.374078660073045e-06</v>
+        <v>6.494820942118658e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>249294.6207356454</v>
+        <v>289843.1851405273</v>
       </c>
     </row>
     <row r="4">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.2323236679511</v>
+        <v>197.0798341012707</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.7099106611535</v>
+        <v>269.6533235658845</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.263912170058</v>
+        <v>243.9179888256521</v>
       </c>
       <c r="AD4" t="n">
-        <v>164232.3236679511</v>
+        <v>197079.8341012707</v>
       </c>
       <c r="AE4" t="n">
-        <v>224709.9106611535</v>
+        <v>269653.3235658846</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.816291155513937e-06</v>
+        <v>7.151437157659715e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.725000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>203263.912170058</v>
+        <v>243917.9888256521</v>
       </c>
     </row>
     <row r="5">
@@ -7013,28 +7013,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>163.8224949778948</v>
+        <v>196.6700054112144</v>
       </c>
       <c r="AB5" t="n">
-        <v>224.149164967053</v>
+        <v>269.0925778717842</v>
       </c>
       <c r="AC5" t="n">
-        <v>202.7566832579908</v>
+        <v>243.4107599135849</v>
       </c>
       <c r="AD5" t="n">
-        <v>163822.4949778948</v>
+        <v>196670.0054112144</v>
       </c>
       <c r="AE5" t="n">
-        <v>224149.164967053</v>
+        <v>269092.5778717842</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.837126765355386e-06</v>
+        <v>7.182374771190833e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.697916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>202756.6832579908</v>
+        <v>243410.7599135849</v>
       </c>
     </row>
   </sheetData>
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>464.5814757893831</v>
+        <v>522.9203369317668</v>
       </c>
       <c r="AB2" t="n">
-        <v>635.6608710632196</v>
+        <v>715.4826746071377</v>
       </c>
       <c r="AC2" t="n">
-        <v>574.9942896845808</v>
+        <v>647.1980123288724</v>
       </c>
       <c r="AD2" t="n">
-        <v>464581.4757893831</v>
+        <v>522920.3369317668</v>
       </c>
       <c r="AE2" t="n">
-        <v>635660.8710632196</v>
+        <v>715482.6746071377</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.645080821953203e-06</v>
+        <v>3.889439201363967e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>574994.2896845809</v>
+        <v>647198.0123288725</v>
       </c>
     </row>
     <row r="3">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.9591895257042</v>
+        <v>260.3932140122938</v>
       </c>
       <c r="AB3" t="n">
-        <v>310.5355758417026</v>
+        <v>356.2814831494598</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.8984963228805</v>
+        <v>322.2784784418768</v>
       </c>
       <c r="AD3" t="n">
-        <v>226959.1895257042</v>
+        <v>260393.2140122938</v>
       </c>
       <c r="AE3" t="n">
-        <v>310535.5758417026</v>
+        <v>356281.4831494598</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.088129177300555e-06</v>
+        <v>6.011358802522791e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.764583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>280898.4963228805</v>
+        <v>322278.4784418768</v>
       </c>
     </row>
     <row r="4">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.7867366447317</v>
+        <v>214.1354202767465</v>
       </c>
       <c r="AB4" t="n">
-        <v>247.3603888251299</v>
+        <v>292.9895290105165</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.7526604882175</v>
+        <v>265.0270195752257</v>
       </c>
       <c r="AD4" t="n">
-        <v>180786.7366447317</v>
+        <v>214135.4202767465</v>
       </c>
       <c r="AE4" t="n">
-        <v>247360.3888251299</v>
+        <v>292989.5290105165</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.610685750235672e-06</v>
+        <v>6.779748185121479e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.883333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>223752.6604882175</v>
+        <v>265027.0195752257</v>
       </c>
     </row>
     <row r="5">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>169.0608387536434</v>
+        <v>202.4095223856581</v>
       </c>
       <c r="AB5" t="n">
-        <v>231.3164980204457</v>
+        <v>276.9456382058323</v>
       </c>
       <c r="AC5" t="n">
-        <v>209.2399761041851</v>
+        <v>250.5143351911934</v>
       </c>
       <c r="AD5" t="n">
-        <v>169060.8387536434</v>
+        <v>202409.5223856581</v>
       </c>
       <c r="AE5" t="n">
-        <v>231316.4980204457</v>
+        <v>276945.6382058323</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.778117141972025e-06</v>
+        <v>7.025946415872487e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.641666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>209239.9761041851</v>
+        <v>250514.3351911934</v>
       </c>
     </row>
     <row r="6">
@@ -7734,28 +7734,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>169.1127534209598</v>
+        <v>202.4614370529745</v>
       </c>
       <c r="AB6" t="n">
-        <v>231.3875299585816</v>
+        <v>277.0166701439682</v>
       </c>
       <c r="AC6" t="n">
-        <v>209.3042288538392</v>
+        <v>250.5785879408475</v>
       </c>
       <c r="AD6" t="n">
-        <v>169112.7534209598</v>
+        <v>202461.4370529745</v>
       </c>
       <c r="AE6" t="n">
-        <v>231387.5299585816</v>
+        <v>277016.6701439682</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.79106679465409e-06</v>
+        <v>7.044988135266332e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>209304.2288538392</v>
+        <v>250578.5879408475</v>
       </c>
     </row>
   </sheetData>
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>745.6138655531936</v>
+        <v>805.6879215200489</v>
       </c>
       <c r="AB2" t="n">
-        <v>1020.181785012075</v>
+        <v>1102.377758666228</v>
       </c>
       <c r="AC2" t="n">
-        <v>922.81706728465</v>
+        <v>997.1683725760242</v>
       </c>
       <c r="AD2" t="n">
-        <v>745613.8655531936</v>
+        <v>805687.9215200489</v>
       </c>
       <c r="AE2" t="n">
-        <v>1020181.785012075</v>
+        <v>1102377.758666228</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.029445783988565e-06</v>
+        <v>2.936146364042751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.09583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>922817.0672846499</v>
+        <v>997168.3725760243</v>
       </c>
     </row>
     <row r="3">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.6710261143318</v>
+        <v>323.9137556016279</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.3406773133783</v>
+        <v>443.1930904805031</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.5144793382229</v>
+        <v>400.8953639504524</v>
       </c>
       <c r="AD3" t="n">
-        <v>289671.0261143318</v>
+        <v>323913.7556016279</v>
       </c>
       <c r="AE3" t="n">
-        <v>396340.6773133783</v>
+        <v>443193.0904805032</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.60435806183202e-06</v>
+        <v>5.214686148036508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>358514.4793382229</v>
+        <v>400895.3639504524</v>
       </c>
     </row>
     <row r="4">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.1801794350697</v>
+        <v>263.3375680677971</v>
       </c>
       <c r="AB4" t="n">
-        <v>313.5744322188545</v>
+        <v>360.3100782639328</v>
       </c>
       <c r="AC4" t="n">
-        <v>283.6473285124596</v>
+        <v>325.9225900927931</v>
       </c>
       <c r="AD4" t="n">
-        <v>229180.1794350697</v>
+        <v>263337.5680677971</v>
       </c>
       <c r="AE4" t="n">
-        <v>313574.4322188545</v>
+        <v>360310.0782639328</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.166532631224693e-06</v>
+        <v>6.028024858980313e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.352083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>283647.3285124596</v>
+        <v>325922.5900927932</v>
       </c>
     </row>
     <row r="5">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>195.9049006307186</v>
+        <v>230.1475406094633</v>
       </c>
       <c r="AB5" t="n">
-        <v>268.0457277570697</v>
+        <v>314.8980184546221</v>
       </c>
       <c r="AC5" t="n">
-        <v>242.463819704555</v>
+        <v>284.844593535551</v>
       </c>
       <c r="AD5" t="n">
-        <v>195904.9006307186</v>
+        <v>230147.5406094633</v>
       </c>
       <c r="AE5" t="n">
-        <v>268045.7277570697</v>
+        <v>314898.0184546221</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.480926884261977e-06</v>
+        <v>6.482881820528273e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.837499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>242463.819704555</v>
+        <v>284844.593535551</v>
       </c>
     </row>
     <row r="6">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>182.4855127998429</v>
+        <v>208.3168392794018</v>
       </c>
       <c r="AB6" t="n">
-        <v>249.6847293052665</v>
+        <v>285.0282897922766</v>
       </c>
       <c r="AC6" t="n">
-        <v>225.8551691751629</v>
+        <v>257.8255898543027</v>
       </c>
       <c r="AD6" t="n">
-        <v>182485.5127998429</v>
+        <v>208316.8392794018</v>
       </c>
       <c r="AE6" t="n">
-        <v>249684.7293052665</v>
+        <v>285028.2897922766</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.642829631031879e-06</v>
+        <v>6.717118263308585e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.597916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>225855.1691751629</v>
+        <v>257825.5898543028</v>
       </c>
     </row>
     <row r="7">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>180.6434086675959</v>
+        <v>206.4747351471547</v>
       </c>
       <c r="AB7" t="n">
-        <v>247.1642811636286</v>
+        <v>282.5078416506387</v>
       </c>
       <c r="AC7" t="n">
-        <v>223.575269066691</v>
+        <v>255.5456897458308</v>
       </c>
       <c r="AD7" t="n">
-        <v>180643.4086675959</v>
+        <v>206474.7351471547</v>
       </c>
       <c r="AE7" t="n">
-        <v>247164.2811636286</v>
+        <v>282507.8416506387</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.670033998109473e-06</v>
+        <v>6.756476793657683e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.560416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>223575.269066691</v>
+        <v>255545.6897458308</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.2406478641835</v>
+        <v>338.7196940301781</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.0660118565546</v>
+        <v>463.451228630349</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.1207644092088</v>
+        <v>419.2200938277525</v>
       </c>
       <c r="AD2" t="n">
-        <v>298240.6478641835</v>
+        <v>338719.6940301781</v>
       </c>
       <c r="AE2" t="n">
-        <v>408066.0118565545</v>
+        <v>463451.228630349</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.401901243270969e-06</v>
+        <v>5.108582755485911e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.741666666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>369120.7644092088</v>
+        <v>419220.0938277525</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.3640118343257</v>
+        <v>200.6515290424732</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.3090216226873</v>
+        <v>274.5402741564953</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.2788272784269</v>
+        <v>248.3385357107747</v>
       </c>
       <c r="AD3" t="n">
-        <v>176364.0118343257</v>
+        <v>200651.5290424732</v>
       </c>
       <c r="AE3" t="n">
-        <v>241309.0216226873</v>
+        <v>274540.2741564953</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.69622730552558e-06</v>
+        <v>7.052252288717925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.058333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>218278.8272784269</v>
+        <v>248338.5357107747</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.0156846990394</v>
+        <v>190.3135807772631</v>
       </c>
       <c r="AB4" t="n">
-        <v>216.2040309651376</v>
+        <v>260.395437261953</v>
       </c>
       <c r="AC4" t="n">
-        <v>195.5698216941501</v>
+        <v>235.5436621970397</v>
       </c>
       <c r="AD4" t="n">
-        <v>158015.6846990394</v>
+        <v>190313.5807772631</v>
       </c>
       <c r="AE4" t="n">
-        <v>216204.0309651376</v>
+        <v>260395.437261953</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.876472073044567e-06</v>
+        <v>7.322923082861469e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.795833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>195569.8216941501</v>
+        <v>235543.6621970397</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.6386548730349</v>
+        <v>241.9861714953356</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.2051003187586</v>
+        <v>331.0961555161983</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.6992100428199</v>
+        <v>299.4968031302036</v>
       </c>
       <c r="AD2" t="n">
-        <v>210638.6548730349</v>
+        <v>241986.1714953356</v>
       </c>
       <c r="AE2" t="n">
-        <v>288205.1003187586</v>
+        <v>331096.1555161983</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.120342234705511e-06</v>
+        <v>6.319561506759646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.379166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>260699.2100428199</v>
+        <v>299496.8031302036</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.1576366684364</v>
+        <v>181.7323021532285</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.3982559121454</v>
+        <v>248.6541532692605</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.7455100848119</v>
+        <v>224.9229498696105</v>
       </c>
       <c r="AD3" t="n">
-        <v>158157.6366684364</v>
+        <v>181732.3021532285</v>
       </c>
       <c r="AE3" t="n">
-        <v>216398.2559121454</v>
+        <v>248654.1532692605</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.892077827812958e-06</v>
+        <v>7.503208463684504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.056249999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>195745.5100848119</v>
+        <v>224922.9498696105</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.8213157312043</v>
+        <v>189.4943560915695</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.3063308852778</v>
+        <v>259.2745379053451</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.5669196570001</v>
+        <v>234.5297399018341</v>
       </c>
       <c r="AD2" t="n">
-        <v>158821.3157312043</v>
+        <v>189494.3560915695</v>
       </c>
       <c r="AE2" t="n">
-        <v>217306.3308852778</v>
+        <v>259274.5379053451</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.712637087330463e-06</v>
+        <v>7.363402490464593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.579166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>196566.9196570001</v>
+        <v>234529.7399018341</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.6021471575286</v>
+        <v>184.1045953173017</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.1652341893114</v>
+        <v>251.9000294345319</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.1073592071022</v>
+        <v>227.8590441692852</v>
       </c>
       <c r="AD3" t="n">
-        <v>153602.1471575286</v>
+        <v>184104.5953173017</v>
       </c>
       <c r="AE3" t="n">
-        <v>210165.2341893114</v>
+        <v>251900.0294345319</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.841205630326274e-06</v>
+        <v>7.56428830283404e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.377083333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>190107.3592071022</v>
+        <v>227859.0441692852</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.9197543289481</v>
+        <v>193.2931942701995</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.7045306837439</v>
+        <v>264.4722758942564</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.2134316150502</v>
+        <v>239.2314130721563</v>
       </c>
       <c r="AD2" t="n">
-        <v>156919.7543289481</v>
+        <v>193293.1942701995</v>
       </c>
       <c r="AE2" t="n">
-        <v>214704.5306837439</v>
+        <v>264472.2758942564</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.383954087149174e-06</v>
+        <v>7.144425344414027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.74375</v>
       </c>
       <c r="AH2" t="n">
-        <v>194213.4316150502</v>
+        <v>239231.4130721563</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.6703643015503</v>
+        <v>469.2829459362853</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.2115069871638</v>
+        <v>642.0936299324354</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.4095666712197</v>
+        <v>580.8131150757526</v>
       </c>
       <c r="AD2" t="n">
-        <v>419670.3643015503</v>
+        <v>469282.9459362853</v>
       </c>
       <c r="AE2" t="n">
-        <v>574211.5069871638</v>
+        <v>642093.6299324355</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.822586416643359e-06</v>
+        <v>4.170034991749195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.35625</v>
       </c>
       <c r="AH2" t="n">
-        <v>519409.5666712197</v>
+        <v>580813.1150757526</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.9095757806593</v>
+        <v>247.0983583375435</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.6805186074141</v>
+        <v>338.0908750874698</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.7475006912966</v>
+        <v>305.8239564827458</v>
       </c>
       <c r="AD3" t="n">
-        <v>213909.5757806593</v>
+        <v>247098.3583375436</v>
       </c>
       <c r="AE3" t="n">
-        <v>292680.5186074141</v>
+        <v>338090.8750874698</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.230494490797673e-06</v>
+        <v>6.25005135538336e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.577083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>264747.5006912966</v>
+        <v>305823.9564827458</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.8958408116961</v>
+        <v>203.9992825140088</v>
       </c>
       <c r="AB4" t="n">
-        <v>233.8272287908496</v>
+        <v>279.1208181487077</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.5110862536952</v>
+        <v>252.4819190132056</v>
       </c>
       <c r="AD4" t="n">
-        <v>170895.8408116961</v>
+        <v>203999.2825140088</v>
       </c>
       <c r="AE4" t="n">
-        <v>233827.2287908496</v>
+        <v>279120.8181487077</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.738880094842029e-06</v>
+        <v>7.001130488219129e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.764583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>211511.0862536952</v>
+        <v>252481.9190132056</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.3428783140573</v>
+        <v>199.44632001637</v>
       </c>
       <c r="AB5" t="n">
-        <v>227.597664639054</v>
+        <v>272.8912539969122</v>
       </c>
       <c r="AC5" t="n">
-        <v>205.8760629612968</v>
+        <v>246.8468957208073</v>
       </c>
       <c r="AD5" t="n">
-        <v>166342.8783140573</v>
+        <v>199446.32001637</v>
       </c>
       <c r="AE5" t="n">
-        <v>227597.664639054</v>
+        <v>272891.2539969122</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.811198870235747e-06</v>
+        <v>7.107972858810173e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.662500000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>205876.0629612968</v>
+        <v>246846.8957208073</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>659.6392441092637</v>
+        <v>719.2568726481894</v>
       </c>
       <c r="AB2" t="n">
-        <v>902.5475150198833</v>
+        <v>984.1189845309867</v>
       </c>
       <c r="AC2" t="n">
-        <v>816.4096469197783</v>
+        <v>890.1960498670184</v>
       </c>
       <c r="AD2" t="n">
-        <v>659639.2441092636</v>
+        <v>719256.8726481894</v>
       </c>
       <c r="AE2" t="n">
-        <v>902547.5150198834</v>
+        <v>984118.9845309868</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.17725208161853e-06</v>
+        <v>3.161738012139768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>816409.6469197783</v>
+        <v>890196.0498670184</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.8097212009574</v>
+        <v>308.8404012177634</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.0067842963991</v>
+        <v>422.5690620230371</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.1212245319862</v>
+        <v>382.2396638229611</v>
       </c>
       <c r="AD3" t="n">
-        <v>274809.7212009574</v>
+        <v>308840.4012177634</v>
       </c>
       <c r="AE3" t="n">
-        <v>376006.7842963991</v>
+        <v>422569.0620230371</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.724637175855181e-06</v>
+        <v>5.408802701236106e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.293750000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>340121.2245319862</v>
+        <v>382239.663822961</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.8454738686937</v>
+        <v>244.4325118993644</v>
       </c>
       <c r="AB4" t="n">
-        <v>299.4340321279146</v>
+        <v>334.4433463819104</v>
       </c>
       <c r="AC4" t="n">
-        <v>270.8564683600184</v>
+        <v>302.5245427975051</v>
       </c>
       <c r="AD4" t="n">
-        <v>218845.4738686937</v>
+        <v>244432.5118993644</v>
       </c>
       <c r="AE4" t="n">
-        <v>299434.0321279146</v>
+        <v>334443.3463819104</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.276067337360174e-06</v>
+        <v>6.20957249605685e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.225000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>270856.4683600184</v>
+        <v>302524.5427975051</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.5692542925667</v>
+        <v>221.5998448008212</v>
       </c>
       <c r="AB5" t="n">
-        <v>256.6405286944535</v>
+        <v>303.2026839515191</v>
       </c>
       <c r="AC5" t="n">
-        <v>232.1471168331739</v>
+        <v>274.2654453429153</v>
       </c>
       <c r="AD5" t="n">
-        <v>187569.2542925667</v>
+        <v>221599.8448008212</v>
       </c>
       <c r="AE5" t="n">
-        <v>256640.5286944535</v>
+        <v>303202.6839515191</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.573949347164833e-06</v>
+        <v>6.642147521008416e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.754166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>232147.1168331739</v>
+        <v>274265.4453429153</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>177.5794141178814</v>
+        <v>203.2517034945726</v>
       </c>
       <c r="AB6" t="n">
-        <v>242.9719886468118</v>
+        <v>278.0979475534568</v>
       </c>
       <c r="AC6" t="n">
-        <v>219.7830830637584</v>
+        <v>251.5566697519573</v>
       </c>
       <c r="AD6" t="n">
-        <v>177579.4141178814</v>
+        <v>203251.7034945725</v>
       </c>
       <c r="AE6" t="n">
-        <v>242971.9886468118</v>
+        <v>278097.9475534568</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.699982054150379e-06</v>
+        <v>6.82516831304865e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.572916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>219783.0830637584</v>
+        <v>251556.6697519573</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>177.9969434015852</v>
+        <v>203.6692327782764</v>
       </c>
       <c r="AB7" t="n">
-        <v>243.543270632867</v>
+        <v>278.6692295395121</v>
       </c>
       <c r="AC7" t="n">
-        <v>220.2998426988639</v>
+        <v>252.0734293870629</v>
       </c>
       <c r="AD7" t="n">
-        <v>177996.9434015852</v>
+        <v>203669.2327782764</v>
       </c>
       <c r="AE7" t="n">
-        <v>243543.270632867</v>
+        <v>278669.2295395121</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.699982054150379e-06</v>
+        <v>6.82516831304865e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.572916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>220299.8426988639</v>
+        <v>252073.4293870629</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.05537986349</v>
+        <v>210.5484483687744</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.5184936274228</v>
+        <v>288.0816757999995</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.6591847620081</v>
+        <v>260.5875649869037</v>
       </c>
       <c r="AD2" t="n">
-        <v>175055.37986349</v>
+        <v>210548.4483687744</v>
       </c>
       <c r="AE2" t="n">
-        <v>239518.4936274228</v>
+        <v>288081.6757999994</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.866094990252626e-06</v>
+        <v>6.444550010516105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.26666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>216659.1847620081</v>
+        <v>260587.5649869037</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.1817034817282</v>
+        <v>274.8090675062389</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.7859821880431</v>
+        <v>376.0058898824461</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.0751796775743</v>
+        <v>340.1204154796457</v>
       </c>
       <c r="AD2" t="n">
-        <v>235181.7034817282</v>
+        <v>274809.0675062389</v>
       </c>
       <c r="AE2" t="n">
-        <v>321785.9821880431</v>
+        <v>376005.8898824462</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.85958946505691e-06</v>
+        <v>5.873934763997975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.814583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>291075.1796775743</v>
+        <v>340120.4154796457</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.7253719855553</v>
+        <v>184.4101950342468</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.9655917184274</v>
+        <v>252.3181644493639</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.0222089299303</v>
+        <v>228.237272965158</v>
       </c>
       <c r="AD3" t="n">
-        <v>152725.3719855553</v>
+        <v>184410.1950342468</v>
       </c>
       <c r="AE3" t="n">
-        <v>208965.5917184274</v>
+        <v>252318.1644493639</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.894746546461426e-06</v>
+        <v>7.449347180709765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="AH3" t="n">
-        <v>189022.2089299303</v>
+        <v>228237.272965158</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.8957506029296</v>
+        <v>184.580573651621</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.1987112592928</v>
+        <v>252.5512839902293</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.2330798690009</v>
+        <v>228.4481439042286</v>
       </c>
       <c r="AD4" t="n">
-        <v>152895.7506029296</v>
+        <v>184580.573651621</v>
       </c>
       <c r="AE4" t="n">
-        <v>209198.7112592928</v>
+        <v>252551.2839902293</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.906014228843019e-06</v>
+        <v>7.466495541137768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.935416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>189233.0798690009</v>
+        <v>228448.1439042286</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>338.7595435124901</v>
+        <v>379.5053979316255</v>
       </c>
       <c r="AB2" t="n">
-        <v>463.5057524500834</v>
+        <v>519.2560280465744</v>
       </c>
       <c r="AC2" t="n">
-        <v>419.269413970656</v>
+        <v>469.6989615102212</v>
       </c>
       <c r="AD2" t="n">
-        <v>338759.5435124901</v>
+        <v>379505.3979316254</v>
       </c>
       <c r="AE2" t="n">
-        <v>463505.7524500834</v>
+        <v>519256.0280465744</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.190833716796379e-06</v>
+        <v>4.763629778649212e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.26458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>419269.4139706561</v>
+        <v>469698.9615102212</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.1716787771357</v>
+        <v>213.6704317447799</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.8330365682186</v>
+        <v>292.3533111872339</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.1303748326717</v>
+        <v>264.4515214880598</v>
       </c>
       <c r="AD3" t="n">
-        <v>189171.6787771357</v>
+        <v>213670.4317447799</v>
       </c>
       <c r="AE3" t="n">
-        <v>258833.0365682186</v>
+        <v>292353.311187234</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.523452912833141e-06</v>
+        <v>6.753111227470633e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.241666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>234130.3748326717</v>
+        <v>264451.5214880598</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.7572411289238</v>
+        <v>193.3367848864765</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.9551494214372</v>
+        <v>264.5319184985289</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.9629386697094</v>
+        <v>239.285363469986</v>
       </c>
       <c r="AD4" t="n">
-        <v>160757.2411289238</v>
+        <v>193336.7848864765</v>
       </c>
       <c r="AE4" t="n">
-        <v>219955.1494214372</v>
+        <v>264531.9184985289</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.858337161011328e-06</v>
+        <v>7.253063502835147e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.741666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>198962.9386697094</v>
+        <v>239285.363469986</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.3340093840813</v>
+        <v>193.913553141634</v>
       </c>
       <c r="AB5" t="n">
-        <v>220.7443091933628</v>
+        <v>265.3210782704546</v>
       </c>
       <c r="AC5" t="n">
-        <v>199.6767821405954</v>
+        <v>239.999206940872</v>
       </c>
       <c r="AD5" t="n">
-        <v>161334.0093840813</v>
+        <v>193913.553141634</v>
       </c>
       <c r="AE5" t="n">
-        <v>220744.3091933628</v>
+        <v>265321.0782704545</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.85770827040442e-06</v>
+        <v>7.252124625322726e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.743749999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>199676.7821405954</v>
+        <v>239999.206940872</v>
       </c>
     </row>
   </sheetData>
